--- a/pkg/database/ds_vanbang.xlsx
+++ b/pkg/database/ds_vanbang.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Cấp độ</t>
   </si>
   <si>
-    <t xml:space="preserve">AT170248</t>
+    <t xml:space="preserve">CT060344</t>
   </si>
   <si>
     <t xml:space="preserve">Văn bằng</t>
@@ -107,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +137,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -188,7 +194,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -199,6 +205,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -396,7 +406,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -433,7 +443,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -470,7 +480,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
